--- a/BackTest/2020-01-13 BackTest BCH.xlsx
+++ b/BackTest/2020-01-13 BackTest BCH.xlsx
@@ -10181,61 +10181,55 @@
         <v>296833.3333333333</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>292200</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>291900</v>
+      </c>
+      <c r="C281" t="n">
+        <v>291500</v>
+      </c>
+      <c r="D281" t="n">
+        <v>292100</v>
+      </c>
+      <c r="E281" t="n">
+        <v>291500</v>
+      </c>
+      <c r="F281" t="n">
+        <v>103.2254</v>
+      </c>
+      <c r="G281" t="n">
+        <v>296685</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>292500</v>
+      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>291900</v>
-      </c>
-      <c r="C281" t="n">
-        <v>291500</v>
-      </c>
-      <c r="D281" t="n">
-        <v>292100</v>
-      </c>
-      <c r="E281" t="n">
-        <v>291500</v>
-      </c>
-      <c r="F281" t="n">
-        <v>103.2254</v>
-      </c>
-      <c r="G281" t="n">
-        <v>296685</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="n">
-        <v>291900</v>
-      </c>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10269,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="J282" t="n">
-        <v>292000</v>
+        <v>291500</v>
       </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
@@ -10304,14 +10298,12 @@
         <v>296396.6666666667</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>292200</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
@@ -10345,14 +10337,12 @@
         <v>296280</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>292000</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
@@ -10386,14 +10376,12 @@
         <v>296173.3333333333</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>292900</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
@@ -10433,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>292500</v>
+        <v>292900</v>
       </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
@@ -10474,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="n">
-        <v>292700</v>
+        <v>292800</v>
       </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
@@ -10515,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="n">
-        <v>292500</v>
+        <v>292800</v>
       </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
@@ -10556,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="n">
-        <v>293400</v>
+        <v>293200</v>
       </c>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
@@ -10597,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="n">
-        <v>294300</v>
+        <v>294000</v>
       </c>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
@@ -10638,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="n">
-        <v>294300</v>
+        <v>294500</v>
       </c>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
@@ -10673,14 +10661,12 @@
         <v>295551.6666666667</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>294600</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
@@ -10714,14 +10700,12 @@
         <v>295471.6666666667</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>294600</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
@@ -10755,14 +10739,12 @@
         <v>295391.6666666667</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>295000</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
@@ -10796,14 +10778,12 @@
         <v>295315</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>294700</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
@@ -10837,14 +10817,12 @@
         <v>295246.6666666667</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>295200</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
@@ -10878,14 +10856,12 @@
         <v>295188.3333333333</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>295500</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
@@ -11309,14 +11285,12 @@
         <v>294495</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>293900</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
@@ -11350,14 +11324,12 @@
         <v>294446.6666666667</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>293900</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
@@ -11391,14 +11363,12 @@
         <v>294401.6666666667</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>294100</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
@@ -11432,14 +11402,12 @@
         <v>294383.3333333333</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>294500</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
@@ -11473,14 +11441,12 @@
         <v>294371.6666666667</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>294500</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
@@ -11514,14 +11480,12 @@
         <v>294356.6666666667</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>295300</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
@@ -11555,14 +11519,12 @@
         <v>294316.6666666667</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>295200</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
@@ -19360,18 +19322,16 @@
         <v>0</v>
       </c>
       <c r="I514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
       <c r="L514" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M514" t="n">
-        <v>1</v>
-      </c>
+      <c r="M514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -19403,11 +19363,7 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L515" t="inlineStr"/>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19442,11 +19398,7 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L516" t="inlineStr"/>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19477,15 +19429,11 @@
         <v>0</v>
       </c>
       <c r="I517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L517" t="inlineStr"/>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19520,11 +19468,7 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L518" t="inlineStr"/>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19559,11 +19503,7 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L519" t="inlineStr"/>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19598,11 +19538,7 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L520" t="inlineStr"/>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19637,11 +19573,7 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L521" t="inlineStr"/>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19676,11 +19608,7 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L522" t="inlineStr"/>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19715,11 +19643,7 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L523" t="inlineStr"/>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19754,11 +19678,7 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L524" t="inlineStr"/>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19793,11 +19713,7 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L525" t="inlineStr"/>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19832,11 +19748,7 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L526" t="inlineStr"/>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19871,11 +19783,7 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L527" t="inlineStr"/>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19910,11 +19818,7 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L528" t="inlineStr"/>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19949,11 +19853,7 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L529" t="inlineStr"/>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19988,11 +19888,7 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L530" t="inlineStr"/>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -20027,11 +19923,7 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L531" t="inlineStr"/>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -20066,11 +19958,7 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L532" t="inlineStr"/>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20105,11 +19993,7 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L533" t="inlineStr"/>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -20144,11 +20028,7 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L534" t="inlineStr"/>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20183,11 +20063,7 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L535" t="inlineStr"/>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20222,11 +20098,7 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L536" t="inlineStr"/>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20261,11 +20133,7 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L537" t="inlineStr"/>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -20300,11 +20168,7 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L538" t="inlineStr"/>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -20339,11 +20203,7 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L539" t="inlineStr"/>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -20378,11 +20238,7 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L540" t="inlineStr"/>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -20417,11 +20273,7 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L541" t="inlineStr"/>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20456,11 +20308,7 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L542" t="inlineStr"/>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20495,11 +20343,7 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L543" t="inlineStr"/>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20534,11 +20378,7 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L544" t="inlineStr"/>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20573,11 +20413,7 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L545" t="inlineStr"/>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20612,11 +20448,7 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L546" t="inlineStr"/>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20651,11 +20483,7 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L547" t="inlineStr"/>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20690,11 +20518,7 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L548" t="inlineStr"/>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20729,11 +20553,7 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L549" t="inlineStr"/>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20768,11 +20588,7 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L550" t="inlineStr"/>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20807,11 +20623,7 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L551" t="inlineStr"/>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20846,11 +20658,7 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L552" t="inlineStr"/>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20885,11 +20693,7 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L553" t="inlineStr"/>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20924,11 +20728,7 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L554" t="inlineStr"/>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20963,11 +20763,7 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L555" t="inlineStr"/>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -21002,11 +20798,7 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L556" t="inlineStr"/>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -21041,11 +20833,7 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L557" t="inlineStr"/>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -21080,11 +20868,7 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L558" t="inlineStr"/>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -21119,11 +20903,7 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L559" t="inlineStr"/>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -21158,11 +20938,7 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L560" t="inlineStr"/>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -21197,11 +20973,7 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L561" t="inlineStr"/>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -21236,11 +21008,7 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L562" t="inlineStr"/>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -21275,11 +21043,7 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L563" t="inlineStr"/>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -21314,11 +21078,7 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L564" t="inlineStr"/>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21353,11 +21113,7 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L565" t="inlineStr"/>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21392,11 +21148,7 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L566" t="inlineStr"/>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21431,11 +21183,7 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L567" t="inlineStr"/>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -21470,11 +21218,7 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L568" t="inlineStr"/>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -21509,11 +21253,7 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L569" t="inlineStr"/>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -21548,11 +21288,7 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L570" t="inlineStr"/>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -21587,11 +21323,7 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L571" t="inlineStr"/>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21626,11 +21358,7 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L572" t="inlineStr"/>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21665,11 +21393,7 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L573" t="inlineStr"/>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21704,11 +21428,7 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L574" t="inlineStr"/>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21743,11 +21463,7 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L575" t="inlineStr"/>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21782,11 +21498,7 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L576" t="inlineStr"/>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -21821,11 +21533,7 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L577" t="inlineStr"/>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21860,11 +21568,7 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L578" t="inlineStr"/>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21899,11 +21603,7 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L579" t="inlineStr"/>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21938,11 +21638,7 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L580" t="inlineStr"/>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21977,11 +21673,7 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L581" t="inlineStr"/>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -22016,11 +21708,7 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L582" t="inlineStr"/>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -22055,11 +21743,7 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L583" t="inlineStr"/>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -22094,11 +21778,7 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L584" t="inlineStr"/>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -22133,11 +21813,7 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L585" t="inlineStr"/>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -22172,11 +21848,7 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L586" t="inlineStr"/>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -22211,11 +21883,7 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L587" t="inlineStr"/>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -22250,11 +21918,7 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L588" t="inlineStr"/>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -22289,11 +21953,7 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L589" t="inlineStr"/>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -22328,11 +21988,7 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L590" t="inlineStr"/>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -22367,11 +22023,7 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L591" t="inlineStr"/>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -22406,11 +22058,7 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L592" t="inlineStr"/>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -22445,11 +22093,7 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L593" t="inlineStr"/>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -22484,11 +22128,7 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L594" t="inlineStr"/>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -22523,11 +22163,7 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L595" t="inlineStr"/>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -22562,11 +22198,7 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L596" t="inlineStr"/>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -22601,11 +22233,7 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L597" t="inlineStr"/>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -22640,11 +22268,7 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L598" t="inlineStr"/>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -22679,11 +22303,7 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L599" t="inlineStr"/>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -22718,11 +22338,7 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L600" t="inlineStr"/>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -22757,11 +22373,7 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L601" t="inlineStr"/>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -22796,11 +22408,7 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L602" t="inlineStr"/>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -22835,11 +22443,7 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L603" t="inlineStr"/>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -22874,11 +22478,7 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L604" t="inlineStr"/>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -22913,11 +22513,7 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L605" t="inlineStr"/>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -22952,11 +22548,7 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L606" t="inlineStr"/>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -22991,11 +22583,7 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L607" t="inlineStr"/>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -23030,11 +22618,7 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L608" t="inlineStr"/>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -23069,11 +22653,7 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L609" t="inlineStr"/>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -23108,11 +22688,7 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L610" t="inlineStr"/>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -23147,11 +22723,7 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L611" t="inlineStr"/>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -23186,11 +22758,7 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L612" t="inlineStr"/>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -23225,11 +22793,7 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L613" t="inlineStr"/>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -23264,11 +22828,7 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L614" t="inlineStr"/>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -23303,11 +22863,7 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L615" t="inlineStr"/>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -23342,11 +22898,7 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L616" t="inlineStr"/>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -23381,11 +22933,7 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L617" t="inlineStr"/>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -23420,11 +22968,7 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L618" t="inlineStr"/>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -23459,11 +23003,7 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L619" t="inlineStr"/>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -23498,11 +23038,7 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L620" t="inlineStr"/>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -23537,11 +23073,7 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L621" t="inlineStr"/>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -23576,11 +23108,7 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L622" t="inlineStr"/>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -23615,11 +23143,7 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L623" t="inlineStr"/>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -23654,11 +23178,7 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L624" t="inlineStr"/>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -23693,11 +23213,7 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L625" t="inlineStr"/>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -23732,11 +23248,7 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L626" t="inlineStr"/>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -23771,11 +23283,7 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L627" t="inlineStr"/>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -23810,11 +23318,7 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L628" t="inlineStr"/>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -23849,11 +23353,7 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L629" t="inlineStr"/>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -23888,11 +23388,7 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L630" t="inlineStr"/>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -23927,11 +23423,7 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L631" t="inlineStr"/>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -23966,11 +23458,7 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L632" t="inlineStr"/>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -24005,11 +23493,7 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L633" t="inlineStr"/>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -24044,11 +23528,7 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L634" t="inlineStr"/>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -24083,11 +23563,7 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L635" t="inlineStr"/>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -24122,11 +23598,7 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L636" t="inlineStr"/>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -24161,11 +23633,7 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L637" t="inlineStr"/>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -24200,11 +23668,7 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L638" t="inlineStr"/>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -24239,11 +23703,7 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L639" t="inlineStr"/>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -24278,11 +23738,7 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L640" t="inlineStr"/>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -24317,11 +23773,7 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L641" t="inlineStr"/>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -24356,11 +23808,7 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L642" t="inlineStr"/>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -24395,11 +23843,7 @@
       </c>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L643" t="inlineStr"/>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -24434,11 +23878,7 @@
       </c>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L644" t="inlineStr"/>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -24473,11 +23913,7 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L645" t="inlineStr"/>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -24512,11 +23948,7 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L646" t="inlineStr"/>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -24551,11 +23983,7 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L647" t="inlineStr"/>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -24590,11 +24018,7 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L648" t="inlineStr"/>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -24629,11 +24053,7 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L649" t="inlineStr"/>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -24668,11 +24088,7 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L650" t="inlineStr"/>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -24707,11 +24123,7 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L651" t="inlineStr"/>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -24746,11 +24158,7 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L652" t="inlineStr"/>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -24785,11 +24193,7 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L653" t="inlineStr"/>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -24824,11 +24228,7 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L654" t="inlineStr"/>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -24863,11 +24263,7 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L655" t="inlineStr"/>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -24902,11 +24298,7 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L656" t="inlineStr"/>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -24941,11 +24333,7 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L657" t="inlineStr"/>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -24980,11 +24368,7 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L658" t="inlineStr"/>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -25019,11 +24403,7 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L659" t="inlineStr"/>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -25058,11 +24438,7 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L660" t="inlineStr"/>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -25097,11 +24473,7 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L661" t="inlineStr"/>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -25136,11 +24508,7 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L662" t="inlineStr"/>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -25175,11 +24543,7 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L663" t="inlineStr"/>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -25214,11 +24578,7 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L664" t="inlineStr"/>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -25253,11 +24613,7 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L665" t="inlineStr"/>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -25292,11 +24648,7 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L666" t="inlineStr"/>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -25331,11 +24683,7 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L667" t="inlineStr"/>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -25370,11 +24718,7 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L668" t="inlineStr"/>
       <c r="M668" t="n">
         <v>1</v>
       </c>
@@ -25409,11 +24753,7 @@
       </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L669" t="inlineStr"/>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -25448,11 +24788,7 @@
       </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L670" t="inlineStr"/>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -25487,11 +24823,7 @@
       </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L671" t="inlineStr"/>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -25526,11 +24858,7 @@
       </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L672" t="inlineStr"/>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -25565,11 +24893,7 @@
       </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L673" t="inlineStr"/>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -25604,11 +24928,7 @@
       </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L674" t="inlineStr"/>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -25643,11 +24963,7 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L675" t="inlineStr"/>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -25682,11 +24998,7 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L676" t="inlineStr"/>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -25721,11 +25033,7 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L677" t="inlineStr"/>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -25760,11 +25068,7 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L678" t="inlineStr"/>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -25799,11 +25103,7 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L679" t="inlineStr"/>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -25838,11 +25138,7 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L680" t="inlineStr"/>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -25877,11 +25173,7 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L681" t="inlineStr"/>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -25916,11 +25208,7 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L682" t="inlineStr"/>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -25955,11 +25243,7 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L683" t="inlineStr"/>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -25994,11 +25278,7 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L684" t="inlineStr"/>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -26033,11 +25313,7 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L685" t="inlineStr"/>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -26072,11 +25348,7 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L686" t="inlineStr"/>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -26111,11 +25383,7 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L687" t="inlineStr"/>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -26150,11 +25418,7 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L688" t="inlineStr"/>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -26189,11 +25453,7 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L689" t="inlineStr"/>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -26228,11 +25488,7 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L690" t="inlineStr"/>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -26267,11 +25523,7 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L691" t="inlineStr"/>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -26306,11 +25558,7 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L692" t="inlineStr"/>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -26345,11 +25593,7 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L693" t="inlineStr"/>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -26384,11 +25628,7 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L694" t="inlineStr"/>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -26423,11 +25663,7 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L695" t="inlineStr"/>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -26462,11 +25698,7 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L696" t="inlineStr"/>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -26501,11 +25733,7 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L697" t="inlineStr"/>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -26540,11 +25768,7 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L698" t="inlineStr"/>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -26579,11 +25803,7 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L699" t="inlineStr"/>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -26618,11 +25838,7 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L700" t="inlineStr"/>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -26657,11 +25873,7 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L701" t="inlineStr"/>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -26696,11 +25908,7 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L702" t="inlineStr"/>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -26735,11 +25943,7 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L703" t="inlineStr"/>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -26774,11 +25978,7 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L704" t="inlineStr"/>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -26813,11 +26013,7 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L705" t="inlineStr"/>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -26852,11 +26048,7 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L706" t="inlineStr"/>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -26891,11 +26083,7 @@
       </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L707" t="inlineStr"/>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -26930,11 +26118,7 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L708" t="inlineStr"/>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -26969,11 +26153,7 @@
       </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L709" t="inlineStr"/>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -27008,11 +26188,7 @@
       </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L710" t="inlineStr"/>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -27047,11 +26223,7 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L711" t="inlineStr"/>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -27086,11 +26258,7 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L712" t="inlineStr"/>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -27125,11 +26293,7 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L713" t="inlineStr"/>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -27164,11 +26328,7 @@
       </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L714" t="inlineStr"/>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -27203,11 +26363,7 @@
       </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L715" t="inlineStr"/>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -27242,11 +26398,7 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L716" t="inlineStr"/>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -27281,11 +26433,7 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L717" t="inlineStr"/>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -27320,11 +26468,7 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L718" t="inlineStr"/>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -27359,11 +26503,7 @@
       </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L719" t="inlineStr"/>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -27398,11 +26538,7 @@
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L720" t="inlineStr"/>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -27437,11 +26573,7 @@
       </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L721" t="inlineStr"/>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -27476,11 +26608,7 @@
       </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L722" t="inlineStr"/>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -27515,11 +26643,7 @@
       </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L723" t="inlineStr"/>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -27554,11 +26678,7 @@
       </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L724" t="inlineStr"/>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -27593,11 +26713,7 @@
       </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L725" t="inlineStr"/>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -27632,11 +26748,7 @@
       </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L726" t="inlineStr"/>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -27671,11 +26783,7 @@
       </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L727" t="inlineStr"/>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -27710,11 +26818,7 @@
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L728" t="inlineStr"/>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -27749,11 +26853,7 @@
       </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L729" t="inlineStr"/>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -27788,11 +26888,7 @@
       </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L730" t="inlineStr"/>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -27827,11 +26923,7 @@
       </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L731" t="inlineStr"/>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -27866,11 +26958,7 @@
       </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L732" t="inlineStr"/>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -27905,11 +26993,7 @@
       </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L733" t="inlineStr"/>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -27944,11 +27028,7 @@
       </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L734" t="inlineStr"/>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -27983,11 +27063,7 @@
       </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L735" t="inlineStr"/>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -28022,11 +27098,7 @@
       </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L736" t="inlineStr"/>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -28061,11 +27133,7 @@
       </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L737" t="inlineStr"/>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -28100,11 +27168,7 @@
       </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L738" t="inlineStr"/>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -28139,11 +27203,7 @@
       </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L739" t="inlineStr"/>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -28178,11 +27238,7 @@
       </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L740" t="inlineStr"/>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -28217,11 +27273,7 @@
       </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L741" t="inlineStr"/>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -28256,11 +27308,7 @@
       </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L742" t="inlineStr"/>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -28295,11 +27343,7 @@
       </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L743" t="inlineStr"/>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -28334,11 +27378,7 @@
       </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L744" t="inlineStr"/>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -28373,11 +27413,7 @@
       </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L745" t="inlineStr"/>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -28412,11 +27448,7 @@
       </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L746" t="inlineStr"/>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -28451,11 +27483,7 @@
       </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L747" t="inlineStr"/>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -28490,11 +27518,7 @@
       </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L748" t="inlineStr"/>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -28529,11 +27553,7 @@
       </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L749" t="inlineStr"/>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -28568,11 +27588,7 @@
       </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L750" t="inlineStr"/>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -28607,11 +27623,7 @@
       </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L751" t="inlineStr"/>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -28646,11 +27658,7 @@
       </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L752" t="inlineStr"/>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -28685,11 +27693,7 @@
       </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L753" t="inlineStr"/>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -28724,11 +27728,7 @@
       </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L754" t="inlineStr"/>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -28763,11 +27763,7 @@
       </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L755" t="inlineStr"/>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -28802,11 +27798,7 @@
       </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L756" t="inlineStr"/>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -28841,11 +27833,7 @@
       </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L757" t="inlineStr"/>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -28880,11 +27868,7 @@
       </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L758" t="inlineStr"/>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -28919,11 +27903,7 @@
       </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L759" t="inlineStr"/>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -28958,11 +27938,7 @@
       </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L760" t="inlineStr"/>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -28997,11 +27973,7 @@
       </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L761" t="inlineStr"/>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -29036,11 +28008,7 @@
       </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L762" t="inlineStr"/>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -29075,11 +28043,7 @@
       </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L763" t="inlineStr"/>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -29114,11 +28078,7 @@
       </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L764" t="inlineStr"/>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -29153,11 +28113,7 @@
       </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L765" t="inlineStr"/>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -29192,11 +28148,7 @@
       </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L766" t="inlineStr"/>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -29231,11 +28183,7 @@
       </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L767" t="inlineStr"/>
       <c r="M767" t="n">
         <v>1</v>
       </c>
@@ -29270,11 +28218,7 @@
       </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L768" t="inlineStr"/>
       <c r="M768" t="n">
         <v>1</v>
       </c>
@@ -29309,11 +28253,7 @@
       </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L769" t="inlineStr"/>
       <c r="M769" t="n">
         <v>1</v>
       </c>
@@ -29348,11 +28288,7 @@
       </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L770" t="inlineStr"/>
       <c r="M770" t="n">
         <v>1</v>
       </c>
@@ -29387,11 +28323,7 @@
       </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr"/>
-      <c r="L771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L771" t="inlineStr"/>
       <c r="M771" t="n">
         <v>1</v>
       </c>
@@ -29426,11 +28358,7 @@
       </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr"/>
-      <c r="L772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L772" t="inlineStr"/>
       <c r="M772" t="n">
         <v>1</v>
       </c>
@@ -29465,11 +28393,7 @@
       </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr"/>
-      <c r="L773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L773" t="inlineStr"/>
       <c r="M773" t="n">
         <v>1</v>
       </c>
@@ -29504,11 +28428,7 @@
       </c>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr"/>
-      <c r="L774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L774" t="inlineStr"/>
       <c r="M774" t="n">
         <v>1</v>
       </c>
@@ -29543,11 +28463,7 @@
       </c>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr"/>
-      <c r="L775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L775" t="inlineStr"/>
       <c r="M775" t="n">
         <v>1</v>
       </c>
@@ -29582,11 +28498,7 @@
       </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr"/>
-      <c r="L776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L776" t="inlineStr"/>
       <c r="M776" t="n">
         <v>1</v>
       </c>
@@ -29621,11 +28533,7 @@
       </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr"/>
-      <c r="L777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L777" t="inlineStr"/>
       <c r="M777" t="n">
         <v>1</v>
       </c>
@@ -29660,11 +28568,7 @@
       </c>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr"/>
-      <c r="L778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L778" t="inlineStr"/>
       <c r="M778" t="n">
         <v>1</v>
       </c>
@@ -29699,11 +28603,7 @@
       </c>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr"/>
-      <c r="L779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L779" t="inlineStr"/>
       <c r="M779" t="n">
         <v>1</v>
       </c>
@@ -29738,11 +28638,7 @@
       </c>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr"/>
-      <c r="L780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L780" t="inlineStr"/>
       <c r="M780" t="n">
         <v>1</v>
       </c>
@@ -29777,11 +28673,7 @@
       </c>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr"/>
-      <c r="L781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L781" t="inlineStr"/>
       <c r="M781" t="n">
         <v>1</v>
       </c>
@@ -29816,11 +28708,7 @@
       </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr"/>
-      <c r="L782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L782" t="inlineStr"/>
       <c r="M782" t="n">
         <v>1</v>
       </c>
@@ -29855,11 +28743,7 @@
       </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr"/>
-      <c r="L783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L783" t="inlineStr"/>
       <c r="M783" t="n">
         <v>1</v>
       </c>
@@ -29894,11 +28778,7 @@
       </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr"/>
-      <c r="L784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L784" t="inlineStr"/>
       <c r="M784" t="n">
         <v>1</v>
       </c>
@@ -29933,11 +28813,7 @@
       </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr"/>
-      <c r="L785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L785" t="inlineStr"/>
       <c r="M785" t="n">
         <v>1</v>
       </c>
@@ -29972,11 +28848,7 @@
       </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr"/>
-      <c r="L786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L786" t="inlineStr"/>
       <c r="M786" t="n">
         <v>1</v>
       </c>
@@ -30011,11 +28883,7 @@
       </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr"/>
-      <c r="L787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L787" t="inlineStr"/>
       <c r="M787" t="n">
         <v>1</v>
       </c>
@@ -30050,11 +28918,7 @@
       </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr"/>
-      <c r="L788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L788" t="inlineStr"/>
       <c r="M788" t="n">
         <v>1</v>
       </c>
@@ -30085,15 +28949,11 @@
         <v>0</v>
       </c>
       <c r="I789" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr"/>
-      <c r="L789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L789" t="inlineStr"/>
       <c r="M789" t="n">
         <v>1</v>
       </c>
@@ -30128,12 +28988,10 @@
       </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr"/>
-      <c r="L790" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M790" t="inlineStr"/>
+      <c r="L790" t="inlineStr"/>
+      <c r="M790" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" s="1" t="n">
@@ -30231,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="I793" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr"/>

--- a/BackTest/2020-01-13 BackTest BCH.xlsx
+++ b/BackTest/2020-01-13 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-134.4200052</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>101.1564948</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-41.18810520000004</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-107.6233052</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-126.0573052</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-135.8873052</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-107.7422052</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-109.6688052</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-103.77907498</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-80.23920520000003</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-47.02990520000003</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-113.7512052</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-98.48814321000003</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-12.14730520000003</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-33.35970520000004</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-39.55490520000004</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-83.09100520000004</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-83.09100520000004</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-82.89720520000004</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-82.89720520000004</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-97.17740520000004</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-118.6570052</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-139.6932052000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-90.89500520000004</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-100.5872052</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-138.6382052</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-175.3149052000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-156.2949052</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-178.1372052</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-159.5362052</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-215.6165052</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-215.6165052</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-188.6420052</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-140.5590052</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-162.5957052</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-123.5486052</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-145.0824052</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-160.7449052</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-158.6266052</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-161.8599052</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-177.4232052</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-179.0235052</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-179.2765052</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-182.7430052</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-178.5648052</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-175.4244052</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-180.4244052</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-176.88640362</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-176.49600362</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-175.5018036199999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-175.9923036199999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-172.9297036199999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-157.5760036199999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-142.80330362</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-153.63130362</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-151.67930362</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-147.32730362</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-149.39790362</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-149.39790362</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-149.39790362</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-167.01190362</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-167.01190362</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-252.6551036199999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-238.1551036199999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-239.6550036199999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-295.7986036199999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-288.63210362</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-297.6172036199999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-299.0158036199999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-299.0158036199999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-298.3546036199999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-297.6572036199999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-296.6710632199999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-299.3243632199999</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-301.2043632199999</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-302.5646632199999</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-314.6859632199999</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-314.6618632199999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-320.8958632199999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-320.8958632199999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-338.7329632199999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-338.7329632199999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-345.3839632199999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-315.8174632199999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-319.7030632199999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-319.7030632199999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-318.93396322</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-318.27516322</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-334.11666322</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-334.11666322</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-334.11666322</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-309.42416322</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-309.21016322</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-407.35786322</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-418.27766322</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-418.27766322</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-501.73566322</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-495.22876322</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-500.22876322</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-497.33736322</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>66.25659735999994</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>65.30789735999994</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>65.30789735999994</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>64.40129735999994</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>64.29539735999994</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-82.66100264000006</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-82.59020264000006</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-83.39060264000005</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-81.39060264000005</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-65.55960264000005</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-78.27080264000006</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-81.64880264000006</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-81.64880264000006</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-96.27980264000006</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-96.27720264000006</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-96.77720264000006</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-100.8092026400001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-29.81980264000005</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-17.36620264000005</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-33.23900264000005</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-31.47490264000005</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-16.41250264000005</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-66.49360264000005</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-66.35330264000005</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-105.8551026400001</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-147.23576841</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-224.18216841</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-233.99686841</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-233.78586841</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-230.99686841</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-235.39746841</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-230.88046841</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-258.20956841</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-254.72356841</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-219.3806684100001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-217.38126841</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-219.38126841</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-220.38906841</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-153.61326841</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-153.47076841</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-132.83556841</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-132.83556841</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-230.15746841</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-253.64126841</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-488.69866841</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-534.15786841</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-528.99246841</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-529.49246841</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-545.92716841</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-544.92716841</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-544.92716841</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-547.74136841</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-541.73266841</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-540.23266841</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-505.60026841</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-505.60016841</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-501.22596841</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-501.23596841</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-504.02356841</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-504.52356841</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-504.52356841</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-503.50356841</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-520.0977684100001</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-537.89096841</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-539.39096841</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-539.39096841</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-527.0669684100001</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-527.0669684100001</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-527.0605684100001</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-528.2814684100001</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-528.1441689700002</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-524.1500689700002</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-541.5217689700003</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-540.9517689700002</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-496.7580689700002</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-505.4098689700002</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-520.6957689700002</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-537.1385689700003</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-521.6186689700003</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-662.9947689700002</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-767.1065981400003</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>293000</v>
@@ -11545,7 +11545,7 @@
         <v>-784.9601981400003</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="n">
         <v>292600</v>
@@ -11584,7 +11584,7 @@
         <v>-693.8177981400004</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>292300</v>
@@ -11623,7 +11623,7 @@
         <v>-797.0431981400004</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>292500</v>
@@ -11662,7 +11662,7 @@
         <v>-792.0671981400004</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>291500</v>
@@ -11701,7 +11701,7 @@
         <v>-807.7734981400005</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>292100</v>
@@ -11740,7 +11740,7 @@
         <v>-782.2288981400005</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>291700</v>
@@ -11779,7 +11779,7 @@
         <v>-782.2288981400005</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>292900</v>
@@ -11818,7 +11818,7 @@
         <v>-811.4717981400005</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>292900</v>
@@ -11857,7 +11857,7 @@
         <v>-811.4717981400005</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>292800</v>
@@ -11896,7 +11896,7 @@
         <v>-769.7428981400005</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>292800</v>
@@ -11935,7 +11935,7 @@
         <v>-765.9315981400006</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>293200</v>
@@ -11974,7 +11974,7 @@
         <v>-730.9385981400005</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>294000</v>
@@ -12013,7 +12013,7 @@
         <v>-723.9085981400005</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>294500</v>
@@ -12052,7 +12052,7 @@
         <v>-728.7374981400005</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>294800</v>
@@ -12091,11 +12091,9 @@
         <v>-728.7374981400005</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>294600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
@@ -12130,11 +12128,9 @@
         <v>-720.6461981400005</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="n">
-        <v>294600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
@@ -12169,11 +12165,9 @@
         <v>-713.9472981400005</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="n">
-        <v>294700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
@@ -12208,11 +12202,9 @@
         <v>-687.6902981400006</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>295000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
@@ -12247,11 +12239,9 @@
         <v>-687.1665981400006</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="n">
-        <v>295200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
@@ -12397,11 +12387,9 @@
         <v>-578.5725981400007</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>295000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -12436,11 +12424,9 @@
         <v>-700.8363981400007</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="n">
-        <v>295200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -12475,11 +12461,9 @@
         <v>-697.5497981400007</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
-      </c>
-      <c r="I362" t="n">
-        <v>294600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -12514,11 +12498,9 @@
         <v>-719.5734981400007</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="n">
-        <v>294800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -12553,11 +12535,9 @@
         <v>-729.7510981400006</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>294600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -12592,11 +12572,9 @@
         <v>-710.2467981400007</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="n">
-        <v>293900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -12631,11 +12609,9 @@
         <v>-715.8844981400007</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="n">
-        <v>294400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -12707,11 +12683,9 @@
         <v>-730.3721981400007</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="n">
-        <v>293900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -12746,11 +12720,9 @@
         <v>-696.7513981400007</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>293900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -12822,11 +12794,9 @@
         <v>-637.4154981400006</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="n">
-        <v>294500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
@@ -12861,11 +12831,9 @@
         <v>-627.0017981400007</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="n">
-        <v>294900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -13048,7 +13016,7 @@
         <v>-664.2300981400006</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13085,7 +13053,7 @@
         <v>-664.2300981400006</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13122,7 +13090,7 @@
         <v>-686.8157981400005</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13344,11 +13312,9 @@
         <v>-585.7203539000005</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="n">
-        <v>297400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -13420,11 +13386,9 @@
         <v>-592.5427539000005</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="n">
-        <v>297000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
@@ -13459,11 +13423,9 @@
         <v>-665.7274539000006</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>296900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -13498,11 +13460,9 @@
         <v>-709.3650539000006</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>296400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -13537,11 +13497,9 @@
         <v>-709.3650539000006</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>296300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
@@ -13576,11 +13534,9 @@
         <v>-690.7427539000006</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="n">
-        <v>296300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -13615,11 +13571,9 @@
         <v>-695.7427539000006</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="n">
-        <v>297300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
@@ -13654,11 +13608,9 @@
         <v>-718.5095539000006</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="n">
-        <v>297000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
@@ -13693,11 +13645,9 @@
         <v>-729.5525539000006</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
-      </c>
-      <c r="I394" t="n">
-        <v>296600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
@@ -13732,11 +13682,9 @@
         <v>-727.5525539000006</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
-      </c>
-      <c r="I395" t="n">
-        <v>295300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
@@ -13771,11 +13719,9 @@
         <v>-727.8817539000006</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
-      </c>
-      <c r="I396" t="n">
-        <v>296000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
@@ -13810,11 +13756,9 @@
         <v>-725.8817539000006</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
-      </c>
-      <c r="I397" t="n">
-        <v>295800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
@@ -13849,11 +13793,9 @@
         <v>-725.8718111100006</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
-      </c>
-      <c r="I398" t="n">
-        <v>296500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -13888,11 +13830,9 @@
         <v>-751.8568111100006</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
-      </c>
-      <c r="I399" t="n">
-        <v>297200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -13927,11 +13867,9 @@
         <v>-799.9444111100006</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
-      </c>
-      <c r="I400" t="n">
-        <v>297100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -13966,11 +13904,9 @@
         <v>-799.9444111100006</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="n">
-        <v>296600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -14005,11 +13941,9 @@
         <v>-794.5184111100006</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
-      </c>
-      <c r="I402" t="n">
-        <v>296600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -14044,11 +13978,9 @@
         <v>-794.5184111100006</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
-      </c>
-      <c r="I403" t="n">
-        <v>296800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -14379,11 +14311,9 @@
         <v>-832.3141111100006</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="n">
-        <v>295900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -14418,11 +14348,9 @@
         <v>-831.3141111100006</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
-      </c>
-      <c r="I413" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -14457,11 +14385,9 @@
         <v>-829.3141111100006</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
-      </c>
-      <c r="I414" t="n">
-        <v>296400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -14496,11 +14422,9 @@
         <v>-809.0522111100006</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="n">
-        <v>296600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
@@ -14535,11 +14459,9 @@
         <v>-809.1483111100006</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="n">
-        <v>296900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
@@ -14574,11 +14496,9 @@
         <v>-809.1483111100006</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>296300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
@@ -14613,11 +14533,9 @@
         <v>-807.4855111100006</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
-      </c>
-      <c r="I418" t="n">
-        <v>296300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
@@ -14689,9 +14607,11 @@
         <v>-807.6132111100006</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>296300</v>
+      </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
@@ -14726,9 +14646,11 @@
         <v>-821.9122111100006</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>296200</v>
+      </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
@@ -14763,9 +14685,11 @@
         <v>-834.3617111100007</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>295900</v>
+      </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
@@ -14800,7 +14724,7 @@
         <v>-842.6409111100006</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>295200</v>
@@ -14839,7 +14763,7 @@
         <v>-831.5106111100006</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>294800</v>
@@ -14878,7 +14802,7 @@
         <v>-846.3072111100006</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>295000</v>
@@ -14917,7 +14841,7 @@
         <v>-832.4740111100006</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>294800</v>
@@ -14956,7 +14880,7 @@
         <v>-834.1137111100005</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>295000</v>
@@ -14995,7 +14919,7 @@
         <v>-818.1375111100006</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>294800</v>
@@ -15034,7 +14958,7 @@
         <v>-818.3375111100006</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>295100</v>
@@ -15073,7 +14997,7 @@
         <v>-816.3166111100006</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>294500</v>
@@ -15112,7 +15036,7 @@
         <v>-815.4873111100006</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>295100</v>
@@ -15151,9 +15075,11 @@
         <v>-810.2873111100006</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>295400</v>
+      </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -15188,9 +15114,11 @@
         <v>-797.4497111100006</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>295600</v>
+      </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -15299,9 +15227,11 @@
         <v>-816.4589111100006</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>295400</v>
+      </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
@@ -15336,9 +15266,11 @@
         <v>-785.4715111100006</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>295600</v>
+      </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
@@ -15410,11 +15342,9 @@
         <v>-788.9425111100006</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
-      </c>
-      <c r="I439" t="n">
-        <v>296300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -15449,11 +15379,9 @@
         <v>-788.9425111100006</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
-      </c>
-      <c r="I440" t="n">
-        <v>296000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
@@ -15488,11 +15416,9 @@
         <v>-788.9870111100006</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
-      </c>
-      <c r="I441" t="n">
-        <v>296000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
@@ -15527,11 +15453,9 @@
         <v>-795.3463111100006</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
-      </c>
-      <c r="I442" t="n">
-        <v>295900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
@@ -15566,11 +15490,9 @@
         <v>-815.5549111100006</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
-      </c>
-      <c r="I443" t="n">
-        <v>295400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -15605,11 +15527,9 @@
         <v>-814.0027111100006</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
-      </c>
-      <c r="I444" t="n">
-        <v>295300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -15644,11 +15564,9 @@
         <v>-813.7462111100007</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
-      </c>
-      <c r="I445" t="n">
-        <v>295700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -15683,11 +15601,9 @@
         <v>-785.4432111100007</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="n">
-        <v>296700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15722,11 +15638,9 @@
         <v>-785.5432111100007</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
-      </c>
-      <c r="I447" t="n">
-        <v>297000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15761,11 +15675,9 @@
         <v>-764.3432111100007</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
-      </c>
-      <c r="I448" t="n">
-        <v>296400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
@@ -15800,11 +15712,9 @@
         <v>-761.3432111100007</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
-      </c>
-      <c r="I449" t="n">
-        <v>296600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -15839,11 +15749,9 @@
         <v>-754.6346111100006</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
-      </c>
-      <c r="I450" t="n">
-        <v>296700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -15878,11 +15786,9 @@
         <v>-747.1806111100007</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
-      </c>
-      <c r="I451" t="n">
-        <v>297200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15917,11 +15823,9 @@
         <v>-756.3316111100006</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
-      </c>
-      <c r="I452" t="n">
-        <v>297800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -15956,11 +15860,9 @@
         <v>-736.8552111100006</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
-      </c>
-      <c r="I453" t="n">
-        <v>297700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
@@ -15995,11 +15897,9 @@
         <v>-736.8552111100006</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
-      </c>
-      <c r="I454" t="n">
-        <v>298300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
@@ -16034,11 +15934,9 @@
         <v>-736.8552111100006</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
-      </c>
-      <c r="I455" t="n">
-        <v>298300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
@@ -16073,11 +15971,9 @@
         <v>-736.8552111100006</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
-      </c>
-      <c r="I456" t="n">
-        <v>298300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -16112,11 +16008,9 @@
         <v>-737.2552111100006</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
-      </c>
-      <c r="I457" t="n">
-        <v>298300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -16151,11 +16045,9 @@
         <v>-739.2552111100006</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="n">
-        <v>297700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -16190,11 +16082,9 @@
         <v>-739.2444111100006</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
-      </c>
-      <c r="I459" t="n">
-        <v>297500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -16229,11 +16119,9 @@
         <v>-739.2444111100006</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="n">
-        <v>298200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -16268,11 +16156,9 @@
         <v>-739.2444111100006</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="n">
-        <v>298200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -16307,11 +16193,9 @@
         <v>-739.2444111100006</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
-      </c>
-      <c r="I462" t="n">
-        <v>298200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -16605,11 +16489,9 @@
         <v>-798.9696111100006</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
-      </c>
-      <c r="I470" t="n">
-        <v>297000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -16644,11 +16526,9 @@
         <v>-796.4887111100006</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="n">
-        <v>296500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -16683,11 +16563,9 @@
         <v>-786.7303111100006</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="n">
-        <v>296600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -16722,11 +16600,9 @@
         <v>-782.2887111100006</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
-      </c>
-      <c r="I473" t="n">
-        <v>297200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -16761,11 +16637,9 @@
         <v>-753.3653111100006</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="n">
-        <v>297700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -16800,11 +16674,9 @@
         <v>-751.3653111100006</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
-      </c>
-      <c r="I475" t="n">
-        <v>298000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
@@ -16839,11 +16711,9 @@
         <v>-755.6462111100005</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
-      </c>
-      <c r="I476" t="n">
-        <v>298100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -16878,11 +16748,9 @@
         <v>-760.2102111100005</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
-      </c>
-      <c r="I477" t="n">
-        <v>298000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -16917,11 +16785,9 @@
         <v>-771.4702111100005</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
-      </c>
-      <c r="I478" t="n">
-        <v>297800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
@@ -16956,11 +16822,9 @@
         <v>-772.5702111100005</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
-      </c>
-      <c r="I479" t="n">
-        <v>297300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
@@ -16995,11 +16859,9 @@
         <v>-772.0702111100005</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
-      </c>
-      <c r="I480" t="n">
-        <v>296800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -17034,11 +16896,9 @@
         <v>-775.1533111100005</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
-      </c>
-      <c r="I481" t="n">
-        <v>297200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -17073,11 +16933,9 @@
         <v>-766.3345111100004</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
-      </c>
-      <c r="I482" t="n">
-        <v>297100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
@@ -17112,11 +16970,9 @@
         <v>-769.0115111100005</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
-      </c>
-      <c r="I483" t="n">
-        <v>297300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
@@ -17151,11 +17007,9 @@
         <v>-775.9401111100004</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
-      </c>
-      <c r="I484" t="n">
-        <v>296800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
@@ -17190,11 +17044,9 @@
         <v>-777.9429111100004</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
-      </c>
-      <c r="I485" t="n">
-        <v>296300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
@@ -17229,7 +17081,7 @@
         <v>-774.4629111100004</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I486" t="n">
         <v>296000</v>
@@ -17268,7 +17120,7 @@
         <v>-774.4629111100004</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I487" t="n">
         <v>296400</v>
@@ -17307,7 +17159,7 @@
         <v>-774.8793111100003</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I488" t="n">
         <v>296400</v>
@@ -17346,7 +17198,7 @@
         <v>-791.8793111100003</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I489" t="n">
         <v>296300</v>
@@ -17385,7 +17237,7 @@
         <v>-773.5733111100003</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I490" t="n">
         <v>296000</v>
@@ -17424,7 +17276,7 @@
         <v>-774.3087111100003</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>296600</v>
@@ -17463,7 +17315,7 @@
         <v>-774.3087111100003</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>296400</v>
@@ -17502,7 +17354,7 @@
         <v>-774.2087111100003</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>296400</v>
@@ -17541,11 +17393,9 @@
         <v>-712.8061272800003</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
-      </c>
-      <c r="I494" t="n">
-        <v>296900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -17580,11 +17430,9 @@
         <v>-712.7861272800003</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
-      </c>
-      <c r="I495" t="n">
-        <v>297300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -17619,11 +17467,9 @@
         <v>-719.7861272800003</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
-      </c>
-      <c r="I496" t="n">
-        <v>298200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
@@ -17658,11 +17504,9 @@
         <v>-727.6384272800003</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
-      </c>
-      <c r="I497" t="n">
-        <v>297500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
@@ -17808,11 +17652,9 @@
         <v>-717.7330272800003</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
-      </c>
-      <c r="I501" t="n">
-        <v>297300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
@@ -18402,11 +18244,9 @@
         <v>-679.2363272800003</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
-      </c>
-      <c r="I517" t="n">
-        <v>298600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -19514,11 +19354,9 @@
         <v>-649.4875101300003</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
-      </c>
-      <c r="I547" t="n">
-        <v>299000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
@@ -19664,11 +19502,9 @@
         <v>-683.9700101300002</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
-      </c>
-      <c r="I551" t="n">
-        <v>298700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -20406,16 +20242,18 @@
         <v>-363.6777101300003</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L571" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L571" t="n">
+        <v>1</v>
+      </c>
       <c r="M571" t="inlineStr"/>
     </row>
     <row r="572">
@@ -20445,7 +20283,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20478,7 +20320,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20511,7 +20357,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20544,7 +20394,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20577,7 +20431,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20610,7 +20468,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20643,7 +20505,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20676,7 +20542,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20709,7 +20579,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20742,7 +20616,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20775,7 +20653,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20808,7 +20690,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20841,7 +20727,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20874,7 +20764,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20907,7 +20801,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20940,7 +20838,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20973,7 +20875,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21006,7 +20912,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21039,7 +20949,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21072,7 +20986,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21105,7 +21023,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21138,7 +21060,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21171,7 +21097,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21204,7 +21134,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21237,7 +21171,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21270,7 +21208,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21303,7 +21245,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21336,7 +21282,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21369,7 +21319,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21402,7 +21356,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21435,7 +21393,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21468,7 +21430,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21501,7 +21467,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21534,7 +21504,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21567,7 +21541,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21600,7 +21578,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21633,7 +21615,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21666,7 +21652,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21699,7 +21689,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21732,7 +21726,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21765,7 +21763,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21798,7 +21800,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21831,7 +21837,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21864,7 +21874,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21897,7 +21911,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21930,7 +21948,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21963,7 +21985,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21996,7 +22022,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22029,7 +22059,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22062,7 +22096,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22095,7 +22133,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22128,7 +22170,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22161,7 +22207,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22194,7 +22244,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22227,7 +22281,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22260,7 +22318,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22293,7 +22355,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22326,7 +22392,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22359,7 +22429,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22392,7 +22466,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22425,7 +22503,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22458,7 +22540,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22491,7 +22577,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22524,7 +22614,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22557,7 +22651,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22590,7 +22688,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22623,7 +22725,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22656,7 +22762,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22689,7 +22799,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22722,7 +22836,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22755,7 +22873,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22788,7 +22910,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22821,7 +22947,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22854,7 +22984,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22887,7 +23021,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22920,7 +23058,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22953,7 +23095,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22986,7 +23132,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23019,7 +23169,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23052,7 +23206,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23085,7 +23243,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23118,7 +23280,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23151,7 +23317,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23184,7 +23354,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23217,7 +23391,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23250,7 +23428,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23283,7 +23465,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23312,11 +23498,15 @@
         <v>-202.2333871400006</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23345,11 +23535,15 @@
         <v>-311.8785871400006</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23378,11 +23572,15 @@
         <v>-335.7440871400006</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23411,11 +23609,15 @@
         <v>-395.3221871400006</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23444,11 +23646,15 @@
         <v>-394.9567871400006</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23477,11 +23683,15 @@
         <v>-393.0518871400006</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23514,7 +23724,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23547,7 +23761,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23580,7 +23798,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23609,11 +23831,15 @@
         <v>-400.7885979100006</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23642,11 +23868,15 @@
         <v>-405.7389979100006</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23675,11 +23905,15 @@
         <v>-391.5461979100006</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23708,11 +23942,15 @@
         <v>-412.8363979100006</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23741,11 +23979,15 @@
         <v>-466.9685979100007</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23774,11 +24016,15 @@
         <v>-466.9685979100007</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23807,14 +24053,16 @@
         <v>-467.3231979100007</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
-      <c r="L674" t="n">
-        <v>1</v>
-      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L674" t="inlineStr"/>
       <c r="M674" t="inlineStr"/>
     </row>
     <row r="675">
@@ -24005,7 +24253,7 @@
         <v>-466.8177979100006</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24038,7 +24286,7 @@
         <v>-477.8231979100007</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24071,7 +24319,7 @@
         <v>-596.6415979100007</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24104,7 +24352,7 @@
         <v>-644.0212979100006</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24137,7 +24385,7 @@
         <v>-701.5957979100006</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24170,7 +24418,7 @@
         <v>-644.4288979100006</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24203,7 +24451,7 @@
         <v>-618.4634979100006</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24236,7 +24484,7 @@
         <v>-614.7877979100006</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24401,7 +24649,7 @@
         <v>-594.1675707600006</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24434,7 +24682,7 @@
         <v>-595.1675707600006</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24467,7 +24715,7 @@
         <v>-599.1675707600006</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24566,7 +24814,7 @@
         <v>-517.2228170000005</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -27998,14 +28246,10 @@
         <v>-737.1729446100004</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
-      </c>
-      <c r="I801" t="n">
-        <v>298200</v>
-      </c>
-      <c r="J801" t="n">
-        <v>298200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
@@ -28035,19 +28279,11 @@
         <v>-746.9594446100004</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
-      </c>
-      <c r="I802" t="n">
-        <v>298800</v>
-      </c>
-      <c r="J802" t="n">
-        <v>298200</v>
-      </c>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28079,14 +28315,8 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>298200</v>
-      </c>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28118,14 +28348,8 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>298200</v>
-      </c>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28157,14 +28381,8 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>298200</v>
-      </c>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28193,19 +28411,11 @@
         <v>-808.1284446100004</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
-      </c>
-      <c r="I806" t="n">
-        <v>297300</v>
-      </c>
-      <c r="J806" t="n">
-        <v>298200</v>
-      </c>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28234,19 +28444,11 @@
         <v>-806.1294446100004</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
-      </c>
-      <c r="I807" t="n">
-        <v>297300</v>
-      </c>
-      <c r="J807" t="n">
-        <v>298200</v>
-      </c>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28275,19 +28477,11 @@
         <v>-805.1294446100004</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
-      </c>
-      <c r="I808" t="n">
-        <v>297600</v>
-      </c>
-      <c r="J808" t="n">
-        <v>298200</v>
-      </c>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28316,19 +28510,11 @@
         <v>-799.9884446100004</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
-      </c>
-      <c r="I809" t="n">
-        <v>297700</v>
-      </c>
-      <c r="J809" t="n">
-        <v>298200</v>
-      </c>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28357,19 +28543,11 @@
         <v>-800.1011446100005</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
-      </c>
-      <c r="I810" t="n">
-        <v>298000</v>
-      </c>
-      <c r="J810" t="n">
-        <v>298200</v>
-      </c>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28401,14 +28579,8 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>298200</v>
-      </c>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28437,17 +28609,15 @@
         <v>-817.1259446100004</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I812" t="n">
         <v>297000</v>
       </c>
-      <c r="J812" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L812" t="n">
@@ -28478,14 +28648,12 @@
         <v>-816.0521446100004</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I813" t="n">
         <v>296900</v>
       </c>
-      <c r="J813" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28519,14 +28687,12 @@
         <v>-814.7815446100004</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I814" t="n">
         <v>297100</v>
       </c>
-      <c r="J814" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28560,14 +28726,12 @@
         <v>-814.9014446100005</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I815" t="n">
         <v>297400</v>
       </c>
-      <c r="J815" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28601,14 +28765,12 @@
         <v>-814.0319446100004</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I816" t="n">
         <v>297200</v>
       </c>
-      <c r="J816" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28642,14 +28804,12 @@
         <v>-822.2112446100004</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I817" t="n">
         <v>297300</v>
       </c>
-      <c r="J817" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28683,14 +28843,12 @@
         <v>-704.2605446100005</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I818" t="n">
         <v>297100</v>
       </c>
-      <c r="J818" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28727,9 +28885,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28763,14 +28919,10 @@
         <v>-645.6141446100005</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
-      </c>
-      <c r="I820" t="n">
-        <v>298900</v>
-      </c>
-      <c r="J820" t="n">
-        <v>298200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28807,9 +28959,7 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28846,9 +28996,7 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28882,14 +29030,10 @@
         <v>-617.9593446100005</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
-      </c>
-      <c r="I823" t="n">
-        <v>299000</v>
-      </c>
-      <c r="J823" t="n">
-        <v>298200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28923,14 +29067,10 @@
         <v>-614.3792446100005</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
-      </c>
-      <c r="I824" t="n">
-        <v>299400</v>
-      </c>
-      <c r="J824" t="n">
-        <v>298200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28967,9 +29107,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29006,9 +29144,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29045,9 +29181,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29084,9 +29218,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29123,9 +29255,7 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29162,9 +29292,7 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29201,9 +29329,7 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29240,9 +29366,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29279,9 +29403,7 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29318,9 +29440,7 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29357,9 +29477,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29396,9 +29514,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29435,9 +29551,7 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29474,9 +29588,7 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29513,9 +29625,7 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29552,9 +29662,7 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29591,9 +29699,7 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29630,9 +29736,7 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29669,9 +29773,7 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29708,9 +29810,7 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29747,9 +29847,7 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29786,9 +29884,7 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29825,9 +29921,7 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29864,9 +29958,7 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29903,9 +29995,7 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29942,9 +30032,7 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29981,9 +30069,7 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30020,9 +30106,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30059,9 +30143,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30098,9 +30180,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30137,9 +30217,7 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30176,9 +30254,7 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30215,9 +30291,7 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30254,9 +30328,7 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30293,9 +30365,7 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30332,9 +30402,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30371,9 +30439,7 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30410,9 +30476,7 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30449,9 +30513,7 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30488,9 +30550,7 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30527,9 +30587,7 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30566,9 +30624,7 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30605,9 +30661,7 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30644,9 +30698,7 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30683,9 +30735,7 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30722,9 +30772,7 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30761,9 +30809,7 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30800,9 +30846,7 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30839,9 +30883,7 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30878,9 +30920,7 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30917,9 +30957,7 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30956,9 +30994,7 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30995,9 +31031,7 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31034,9 +31068,7 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31073,9 +31105,7 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31112,9 +31142,7 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31151,9 +31179,7 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31190,9 +31216,7 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31229,9 +31253,7 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31268,9 +31290,7 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31307,9 +31327,7 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31346,9 +31364,7 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31385,9 +31401,7 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31424,9 +31438,7 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31463,9 +31475,7 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31502,9 +31512,7 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31541,9 +31549,7 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31580,9 +31586,7 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31619,9 +31623,7 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31658,9 +31660,7 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31697,9 +31697,7 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31736,9 +31734,7 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31775,9 +31771,7 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31814,9 +31808,7 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31853,9 +31845,7 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31892,9 +31882,7 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31931,9 +31919,7 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31970,9 +31956,7 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32009,9 +31993,7 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32048,9 +32030,7 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32087,9 +32067,7 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32126,9 +32104,7 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32165,9 +32141,7 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32204,9 +32178,7 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32243,9 +32215,7 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32282,9 +32252,7 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32321,9 +32289,7 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32360,9 +32326,7 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32399,9 +32363,7 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32438,9 +32400,7 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32477,9 +32437,7 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32516,9 +32474,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32555,9 +32511,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32594,9 +32548,7 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32633,9 +32585,7 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32672,9 +32622,7 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32711,9 +32659,7 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32750,9 +32696,7 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32789,9 +32733,7 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32828,9 +32770,7 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32867,9 +32807,7 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32906,9 +32844,7 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32945,9 +32881,7 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32984,9 +32918,7 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33023,9 +32955,7 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33062,9 +32992,7 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33101,9 +33029,7 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33140,9 +33066,7 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33179,9 +33103,7 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33218,9 +33140,7 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33257,9 +33177,7 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33296,9 +33214,7 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33335,9 +33251,7 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33374,9 +33288,7 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33413,9 +33325,7 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33452,9 +33362,7 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33491,9 +33399,7 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33530,9 +33436,7 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33569,9 +33473,7 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33608,9 +33510,7 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33647,9 +33547,7 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33686,9 +33584,7 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33725,9 +33621,7 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33764,9 +33658,7 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33803,9 +33695,7 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33842,9 +33732,7 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33881,9 +33769,7 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33920,9 +33806,7 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33959,9 +33843,7 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33998,9 +33880,7 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34037,9 +33917,7 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="n">
-        <v>298200</v>
-      </c>
+      <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34051,6 +33929,6 @@
       <c r="M955" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest BCH.xlsx
+++ b/BackTest/2020-01-13 BackTest BCH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-134.4200052</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>101.1564948</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-107.6233052</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-126.0573052</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-135.8873052</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-107.7422052</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-109.6688052</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-103.77907498</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-80.23920520000003</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-47.02990520000003</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-113.7512052</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-98.48814321000003</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-12.14730520000003</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-33.35970520000004</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-39.55490520000004</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-83.09100520000004</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-83.09100520000004</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-82.89720520000004</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-82.89720520000004</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-97.17740520000004</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-118.6570052</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-139.6932052000001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-90.89500520000004</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-100.5872052</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-138.6382052</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-175.3149052000001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-156.2949052</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-178.1372052</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-159.5362052</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-140.5590052</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-162.5957052</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-123.5486052</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-145.0824052</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-160.7449052</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-161.8599052</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-177.4232052</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-179.0235052</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-179.2765052</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-182.7430052</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-178.5648052</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-175.4244052</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-180.4244052</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-176.88640362</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-176.49600362</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-175.5018036199999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-175.9923036199999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-172.9297036199999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-157.5760036199999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-142.80330362</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-153.63130362</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-151.67930362</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-147.32730362</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-149.39790362</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-149.39790362</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-149.39790362</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-167.01190362</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-167.01190362</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-252.6551036199999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-238.1551036199999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-239.6550036199999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-295.7986036199999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-288.63210362</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-297.6172036199999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-299.0158036199999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-299.0158036199999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-298.3546036199999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-297.6572036199999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-296.6710632199999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-299.3243632199999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-301.2043632199999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-302.5646632199999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-314.6859632199999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-314.6618632199999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-320.8958632199999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-320.8958632199999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-338.7329632199999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-338.7329632199999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-345.3839632199999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-315.8174632199999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-319.7030632199999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-319.7030632199999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-318.93396322</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-318.27516322</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-334.11666322</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-334.11666322</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-334.11666322</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-309.42416322</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-309.21016322</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-407.35786322</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-418.27766322</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-418.27766322</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-501.73566322</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-495.22876322</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-500.22876322</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-497.33736322</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>66.25659735999994</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>65.30789735999994</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>65.30789735999994</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>64.40129735999994</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>64.29539735999994</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-82.66100264000006</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-82.59020264000006</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-83.39060264000005</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-81.39060264000005</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-65.55960264000005</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-78.27080264000006</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-81.64880264000006</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-81.64880264000006</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-96.27980264000006</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-96.27720264000006</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-96.77720264000006</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-100.8092026400001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-29.81980264000005</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-31.47490264000005</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-16.41250264000005</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-66.49360264000005</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-66.35330264000005</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-105.8551026400001</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-147.23576841</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-224.18216841</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-233.99686841</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-233.78586841</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-230.99686841</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-235.39746841</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-230.88046841</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-258.20956841</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-254.72356841</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-219.3806684100001</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-217.38126841</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-219.38126841</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-220.38906841</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-503.50356841</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-520.0977684100001</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-537.89096841</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-539.39096841</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-539.39096841</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-527.0669684100001</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-527.0669684100001</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-527.0605684100001</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-523.6269689700002</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-523.9896689700003</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-528.1441689700002</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11077,11 +11077,17 @@
         <v>-743.9373689700003</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>293000</v>
+      </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11120,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +11153,17 @@
         <v>-741.3095689700003</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>293500</v>
+      </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +11192,17 @@
         <v>-740.3237689700003</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>294100</v>
+      </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +11235,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +11272,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +11309,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +11346,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +11383,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +11420,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +11457,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +11494,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +11531,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11514,7 +11572,7 @@
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L337" t="n">
@@ -11935,11 +11993,9 @@
         <v>-765.9315981400006</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>293200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
@@ -11974,11 +12030,9 @@
         <v>-730.9385981400005</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>294000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
@@ -12013,11 +12067,9 @@
         <v>-723.9085981400005</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>294500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -12052,11 +12104,9 @@
         <v>-728.7374981400005</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>294800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -13312,18 +13362,16 @@
         <v>-585.7203539000005</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="inlineStr"/>
     </row>
     <row r="386">
@@ -13349,15 +13397,11 @@
         <v>-585.7203539000005</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13386,15 +13430,11 @@
         <v>-592.5427539000005</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13423,15 +13463,11 @@
         <v>-665.7274539000006</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13464,11 +13500,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13501,11 +13533,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13538,11 +13566,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13575,11 +13599,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13612,11 +13632,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13649,11 +13665,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13686,11 +13698,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13723,11 +13731,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13760,11 +13764,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13797,11 +13797,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13834,11 +13830,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13871,11 +13863,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13908,11 +13896,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13945,11 +13929,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13982,11 +13962,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14019,11 +13995,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14056,11 +14028,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14093,11 +14061,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14130,11 +14094,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14167,11 +14127,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14204,11 +14160,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14241,11 +14193,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14278,11 +14226,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14315,11 +14259,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14352,11 +14292,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14389,11 +14325,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14426,11 +14358,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14463,11 +14391,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14500,11 +14424,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14537,11 +14457,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14574,11 +14490,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14607,17 +14519,11 @@
         <v>-807.6132111100006</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>296300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14646,17 +14552,11 @@
         <v>-821.9122111100006</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>296200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14685,17 +14585,11 @@
         <v>-834.3617111100007</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>295900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14724,17 +14618,11 @@
         <v>-842.6409111100006</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>295200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14763,17 +14651,11 @@
         <v>-831.5106111100006</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>294800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14802,17 +14684,11 @@
         <v>-846.3072111100006</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>295000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14841,17 +14717,11 @@
         <v>-832.4740111100006</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>294800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14888,7 +14758,7 @@
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L427" t="n">
@@ -14919,11 +14789,9 @@
         <v>-818.1375111100006</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>294800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
@@ -14958,11 +14826,9 @@
         <v>-818.3375111100006</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>295100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -15075,11 +14941,9 @@
         <v>-810.2873111100006</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>295400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -15114,11 +14978,9 @@
         <v>-797.4497111100006</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>295600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -15227,11 +15089,9 @@
         <v>-816.4589111100006</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>295400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
@@ -15266,11 +15126,9 @@
         <v>-785.4715111100006</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>295600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
@@ -16674,18 +16532,16 @@
         <v>-751.3653111100006</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L475" t="n">
-        <v>1</v>
-      </c>
+      <c r="L475" t="inlineStr"/>
       <c r="M475" t="inlineStr"/>
     </row>
     <row r="476">
@@ -16711,15 +16567,11 @@
         <v>-755.6462111100005</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16748,15 +16600,11 @@
         <v>-760.2102111100005</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16785,15 +16633,11 @@
         <v>-771.4702111100005</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16822,15 +16666,11 @@
         <v>-772.5702111100005</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16859,15 +16699,11 @@
         <v>-772.0702111100005</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16900,11 +16736,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16937,11 +16769,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16970,15 +16798,11 @@
         <v>-769.0115111100005</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17011,11 +16835,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17048,11 +16868,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17081,17 +16897,11 @@
         <v>-774.4629111100004</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>296000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17120,17 +16930,11 @@
         <v>-774.4629111100004</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
-        <v>296400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17159,17 +16963,11 @@
         <v>-774.8793111100003</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>296400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17198,17 +16996,11 @@
         <v>-791.8793111100003</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>296300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17237,17 +17029,11 @@
         <v>-773.5733111100003</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>296000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17276,17 +17062,11 @@
         <v>-774.3087111100003</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
-      </c>
-      <c r="I491" t="n">
-        <v>296600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17315,17 +17095,11 @@
         <v>-774.3087111100003</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>296400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17354,17 +17128,11 @@
         <v>-774.2087111100003</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="n">
-        <v>296400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17397,11 +17165,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17434,11 +17198,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17471,11 +17231,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17508,11 +17264,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17545,11 +17297,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17582,11 +17330,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17619,11 +17363,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17656,11 +17396,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17693,11 +17429,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17730,11 +17462,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17767,11 +17495,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17804,11 +17528,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17841,11 +17561,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17878,11 +17594,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17915,11 +17627,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17952,11 +17660,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17989,11 +17693,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18026,11 +17726,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18063,11 +17759,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18100,11 +17792,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18137,11 +17825,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18174,11 +17858,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18211,11 +17891,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18248,11 +17924,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18285,11 +17957,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18318,15 +17986,11 @@
         <v>-691.0250346400003</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18359,11 +18023,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18396,11 +18056,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18433,11 +18089,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18470,11 +18122,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18507,11 +18155,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18544,11 +18188,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18581,11 +18221,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18618,11 +18254,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18655,11 +18287,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18692,11 +18320,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18725,15 +18349,11 @@
         <v>-685.4478567200003</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18766,11 +18386,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18799,15 +18415,11 @@
         <v>-688.7915567200004</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18836,15 +18448,11 @@
         <v>-691.7567567200003</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18877,11 +18485,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18914,11 +18518,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18951,11 +18551,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18988,11 +18584,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19025,11 +18617,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19062,11 +18650,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19099,11 +18683,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19136,11 +18716,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19173,11 +18749,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19210,11 +18782,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19247,11 +18815,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19284,11 +18848,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19321,11 +18881,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19358,11 +18914,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19395,11 +18947,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19432,11 +18980,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19469,11 +19013,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19502,15 +19042,11 @@
         <v>-683.9700101300002</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19539,15 +19075,11 @@
         <v>-673.9700101300002</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19576,15 +19108,11 @@
         <v>-663.9700101300002</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19613,15 +19141,11 @@
         <v>-663.8700101300002</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19654,11 +19178,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19691,11 +19211,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19728,11 +19244,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19765,11 +19277,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19802,11 +19310,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19839,11 +19343,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19876,11 +19376,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19913,11 +19409,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19950,11 +19442,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19987,11 +19475,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20024,11 +19508,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20061,11 +19541,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20098,11 +19574,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20135,11 +19607,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20172,11 +19640,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20209,11 +19673,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20246,11 +19706,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20283,11 +19739,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20320,11 +19772,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20357,11 +19805,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20394,11 +19838,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20431,11 +19871,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20468,11 +19904,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20505,11 +19937,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20542,11 +19970,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20579,11 +20003,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20616,11 +20036,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20653,11 +20069,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20690,11 +20102,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20727,11 +20135,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20764,11 +20168,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20801,11 +20201,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20838,11 +20234,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20875,11 +20267,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20912,11 +20300,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20949,11 +20333,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20986,11 +20366,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21023,11 +20399,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21060,11 +20432,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21097,11 +20465,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21134,11 +20498,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21171,11 +20531,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21208,11 +20564,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21245,11 +20597,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21282,11 +20630,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21319,11 +20663,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21356,11 +20696,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21393,11 +20729,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21430,11 +20762,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21467,11 +20795,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21504,11 +20828,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21541,11 +20861,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21578,11 +20894,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21615,11 +20927,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21652,11 +20960,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21689,11 +20993,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21726,11 +21026,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21763,11 +21059,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21800,11 +21092,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21837,11 +21125,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21874,11 +21158,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21911,11 +21191,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21948,11 +21224,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21985,11 +21257,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22022,11 +21290,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22059,11 +21323,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22096,11 +21356,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22133,11 +21389,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22170,11 +21422,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22207,11 +21455,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22244,11 +21488,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22281,11 +21521,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22318,11 +21554,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22355,11 +21587,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22392,11 +21620,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22429,11 +21653,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22466,11 +21686,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22503,11 +21719,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22540,11 +21752,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22577,11 +21785,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22614,11 +21818,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22651,11 +21851,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22688,11 +21884,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22725,11 +21917,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22762,11 +21950,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22799,11 +21983,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22836,11 +22016,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22873,11 +22049,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22910,11 +22082,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22947,11 +22115,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22984,11 +22148,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23021,11 +22181,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23058,11 +22214,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23095,11 +22247,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23132,11 +22280,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23169,11 +22313,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23206,11 +22346,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23243,11 +22379,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23280,11 +22412,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23317,11 +22445,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23354,11 +22478,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23391,11 +22511,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23428,11 +22544,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23465,11 +22577,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23502,11 +22610,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23539,11 +22643,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23576,11 +22676,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23613,11 +22709,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23650,11 +22742,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23687,11 +22775,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23724,11 +22808,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23761,11 +22841,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23798,11 +22874,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23835,11 +22907,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23872,11 +22940,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23909,11 +22973,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23946,11 +23006,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23983,11 +23039,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24020,11 +23072,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24053,16 +23101,14 @@
         <v>-467.3231979100007</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
+      <c r="L674" t="n">
+        <v>1</v>
+      </c>
       <c r="M674" t="inlineStr"/>
     </row>
     <row r="675">
@@ -24253,7 +23299,7 @@
         <v>-466.8177979100006</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24286,7 +23332,7 @@
         <v>-477.8231979100007</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24319,7 +23365,7 @@
         <v>-596.6415979100007</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24352,7 +23398,7 @@
         <v>-644.0212979100006</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24385,7 +23431,7 @@
         <v>-701.5957979100006</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24418,7 +23464,7 @@
         <v>-644.4288979100006</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24451,7 +23497,7 @@
         <v>-618.4634979100006</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24484,7 +23530,7 @@
         <v>-614.7877979100006</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24649,7 +23695,7 @@
         <v>-594.1675707600006</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24682,7 +23728,7 @@
         <v>-595.1675707600006</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24715,7 +23761,7 @@
         <v>-599.1675707600006</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24814,7 +23860,7 @@
         <v>-517.2228170000005</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -28609,17 +27655,11 @@
         <v>-817.1259446100004</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
-      </c>
-      <c r="I812" t="n">
-        <v>297000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28648,17 +27688,11 @@
         <v>-816.0521446100004</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
-      </c>
-      <c r="I813" t="n">
-        <v>296900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28687,17 +27721,11 @@
         <v>-814.7815446100004</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
-      </c>
-      <c r="I814" t="n">
-        <v>297100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28726,17 +27754,11 @@
         <v>-814.9014446100005</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
-      </c>
-      <c r="I815" t="n">
-        <v>297400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28765,17 +27787,11 @@
         <v>-814.0319446100004</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
-      </c>
-      <c r="I816" t="n">
-        <v>297200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28804,17 +27820,11 @@
         <v>-822.2112446100004</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
-      </c>
-      <c r="I817" t="n">
-        <v>297300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28843,17 +27853,11 @@
         <v>-704.2605446100005</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
-      </c>
-      <c r="I818" t="n">
-        <v>297100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28882,15 +27886,11 @@
         <v>-707.9302446100005</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28919,15 +27919,11 @@
         <v>-645.6141446100005</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28956,15 +27952,11 @@
         <v>-645.6183446100005</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28993,15 +27985,11 @@
         <v>-632.6183446100005</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -29030,15 +28018,11 @@
         <v>-617.9593446100005</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29067,15 +28051,11 @@
         <v>-614.3792446100005</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -29104,15 +28084,11 @@
         <v>-644.8394446100004</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29141,15 +28117,11 @@
         <v>-644.8194446100005</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29178,15 +28150,11 @@
         <v>-689.3090446100005</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29219,11 +28187,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29256,11 +28220,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29289,15 +28249,11 @@
         <v>-785.8370513000004</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29326,15 +28282,11 @@
         <v>-792.7945513000004</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29367,11 +28319,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29404,11 +28352,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29441,11 +28385,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29478,11 +28418,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29515,11 +28451,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29552,11 +28484,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29589,11 +28517,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29626,11 +28550,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29663,11 +28583,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29700,11 +28616,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29737,11 +28649,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29774,11 +28682,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29811,11 +28715,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29848,11 +28748,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29885,11 +28781,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29922,11 +28814,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29959,11 +28847,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29996,11 +28880,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -30033,11 +28913,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -30070,11 +28946,7 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -30107,11 +28979,7 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -30144,11 +29012,7 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30181,11 +29045,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30218,11 +29078,7 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30255,11 +29111,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30292,11 +29144,7 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -30329,11 +29177,7 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -30366,11 +29210,7 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -30403,11 +29243,7 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -30440,11 +29276,7 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -30477,11 +29309,7 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30514,11 +29342,7 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30551,11 +29375,7 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -30588,11 +29408,7 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -30625,11 +29441,7 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -30662,11 +29474,7 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30699,11 +29507,7 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30736,11 +29540,7 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30773,11 +29573,7 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30810,11 +29606,7 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30847,11 +29639,7 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -30884,11 +29672,7 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -30921,11 +29705,7 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30958,11 +29738,7 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30995,11 +29771,7 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -31032,11 +29804,7 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -31069,11 +29837,7 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -31106,11 +29870,7 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -31143,11 +29903,7 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -31180,11 +29936,7 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -31217,11 +29969,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -31254,11 +30002,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -31291,11 +30035,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -31328,11 +30068,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -31365,11 +30101,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -31402,11 +30134,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -31439,11 +30167,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -31476,11 +30200,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -31513,11 +30233,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31550,11 +30266,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31587,11 +30299,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31624,11 +30332,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31661,11 +30365,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31698,11 +30398,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31735,11 +30431,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31772,11 +30464,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31809,11 +30497,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31846,11 +30530,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31883,11 +30563,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31920,11 +30596,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31957,11 +30629,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -31994,11 +30662,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -32031,11 +30695,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -32068,11 +30728,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -32105,11 +30761,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -32142,11 +30794,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -32179,11 +30827,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -32216,11 +30860,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -32253,11 +30893,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -32290,11 +30926,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -32327,11 +30959,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -32364,11 +30992,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -32401,11 +31025,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -32438,11 +31058,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -32475,11 +31091,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -32512,11 +31124,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -32549,11 +31157,7 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -32586,11 +31190,7 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -32623,11 +31223,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -32660,11 +31256,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -32697,11 +31289,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -32734,11 +31322,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -32771,11 +31355,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -32808,11 +31388,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -32845,11 +31421,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -32882,11 +31454,7 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -32919,11 +31487,7 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K928" t="inlineStr"/>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -32956,11 +31520,7 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -32993,11 +31553,7 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K930" t="inlineStr"/>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -33030,11 +31586,7 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K931" t="inlineStr"/>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -33067,11 +31619,7 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K932" t="inlineStr"/>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -33104,11 +31652,7 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K933" t="inlineStr"/>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -33141,11 +31685,7 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -33178,11 +31718,7 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -33215,11 +31751,7 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -33252,11 +31784,7 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -33289,11 +31817,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -33326,11 +31850,7 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -33363,11 +31883,7 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -33400,11 +31916,7 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -33437,11 +31949,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -33474,11 +31982,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -33511,11 +32015,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -33548,11 +32048,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -33585,11 +32081,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -33622,11 +32114,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -33659,11 +32147,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K948" t="inlineStr"/>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -33696,11 +32180,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K949" t="inlineStr"/>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -33733,11 +32213,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -33770,11 +32246,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -33807,11 +32279,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -33844,11 +32312,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -33881,11 +32345,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -33918,17 +32378,13 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
       <c r="M955" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest BCH.xlsx
+++ b/BackTest/2020-01-13 BackTest BCH.xlsx
@@ -517,7 +517,7 @@
         <v>52.27579479999996</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>32.27579479999996</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>43.20709479999996</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>47.20709479999996</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>42.20709479999996</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-41.18810520000004</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-107.6233052</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-126.0573052</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-135.8873052</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-107.7422052</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-109.6688052</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-103.77907498</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-80.23920520000003</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-47.02990520000003</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-113.7512052</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-98.48814321000003</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-12.14730520000003</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-33.35970520000004</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-39.55490520000004</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-83.09100520000004</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-83.09100520000004</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-82.89720520000004</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-82.89720520000004</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-97.17740520000004</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-118.6570052</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-139.6932052000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-90.89500520000004</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-100.5872052</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-138.6382052</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-175.3149052000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-153.6623052</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-140.5590052</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-162.5957052</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-123.5486052</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-145.0824052</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-160.7449052</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-159.1266052</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-158.6266052</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-161.8599052</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-177.4232052</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-177.4232052</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-186.6591052</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-179.0235052</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-175.9923036199999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-172.9297036199999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-157.5760036199999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-142.80330362</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-153.63130362</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-151.67930362</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-147.32730362</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-149.39790362</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-149.39790362</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-149.39790362</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-167.01190362</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-167.01190362</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-242.94390362</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-252.6551036199999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-238.1551036199999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-239.6550036199999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-295.7986036199999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-288.63210362</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-299.0158036199999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-301.2043632199999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-503.50356841</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-520.0977684100001</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-537.89096841</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-539.39096841</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-539.39096841</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-527.0669684100001</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-527.0669684100001</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-527.0605684100001</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-523.6269689700002</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-523.9896689700003</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-528.1441689700002</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11077,17 +11077,11 @@
         <v>-743.9373689700003</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>293000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11120,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11153,17 +11143,11 @@
         <v>-741.3095689700003</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>293500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11192,17 +11176,11 @@
         <v>-740.3237689700003</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>294100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11235,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11272,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11309,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11346,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11383,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11420,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11457,11 +11411,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11494,11 +11444,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11531,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11564,17 +11506,11 @@
         <v>-767.1065981400003</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>293000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11603,17 +11539,11 @@
         <v>-784.9601981400003</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>292600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11642,17 +11572,11 @@
         <v>-693.8177981400004</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>292300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11681,17 +11605,11 @@
         <v>-797.0431981400004</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>292500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11720,17 +11638,11 @@
         <v>-792.0671981400004</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>291500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11767,7 +11679,7 @@
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L342" t="n">
@@ -11993,9 +11905,11 @@
         <v>-765.9315981400006</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>293200</v>
+      </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
@@ -12030,9 +11944,11 @@
         <v>-730.9385981400005</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>294000</v>
+      </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
@@ -12067,9 +11983,11 @@
         <v>-723.9085981400005</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>294500</v>
+      </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -12104,9 +12022,11 @@
         <v>-728.7374981400005</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>294800</v>
+      </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -12178,9 +12098,11 @@
         <v>-720.6461981400005</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>294600</v>
+      </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
@@ -12733,9 +12655,11 @@
         <v>-730.3721981400007</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>293900</v>
+      </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -12770,9 +12694,11 @@
         <v>-696.7513981400007</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>293900</v>
+      </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -12807,9 +12733,11 @@
         <v>-693.8043981400007</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>294100</v>
+      </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -12844,9 +12772,11 @@
         <v>-637.4154981400006</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>294500</v>
+      </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
@@ -12881,9 +12811,11 @@
         <v>-627.0017981400007</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>294900</v>
+      </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -12992,9 +12924,11 @@
         <v>-700.8209981400006</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>295600</v>
+      </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -13362,16 +13296,18 @@
         <v>-585.7203539000005</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
       <c r="M385" t="inlineStr"/>
     </row>
     <row r="386">
@@ -13397,11 +13333,17 @@
         <v>-585.7203539000005</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>297000</v>
+      </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13430,11 +13372,17 @@
         <v>-592.5427539000005</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>297000</v>
+      </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13463,11 +13411,17 @@
         <v>-665.7274539000006</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>296900</v>
+      </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13500,7 +13454,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13529,11 +13487,17 @@
         <v>-709.3650539000006</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>296300</v>
+      </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13562,11 +13526,17 @@
         <v>-690.7427539000006</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>296300</v>
+      </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13595,11 +13565,17 @@
         <v>-695.7427539000006</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>297300</v>
+      </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13632,7 +13608,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13661,11 +13641,17 @@
         <v>-729.5525539000006</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>296600</v>
+      </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13694,11 +13680,17 @@
         <v>-727.5525539000006</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>295300</v>
+      </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13727,11 +13719,17 @@
         <v>-727.8817539000006</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>296000</v>
+      </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13764,7 +13762,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13797,7 +13799,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13830,7 +13836,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13863,7 +13873,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13896,7 +13910,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13929,7 +13947,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13962,7 +13984,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13995,7 +14021,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14028,7 +14058,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14061,7 +14095,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14094,7 +14132,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14127,7 +14169,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14160,7 +14206,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14193,7 +14243,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14226,7 +14280,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14259,7 +14317,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14292,7 +14354,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14321,11 +14387,17 @@
         <v>-829.3141111100006</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>296400</v>
+      </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14354,11 +14426,17 @@
         <v>-809.0522111100006</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>296600</v>
+      </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14391,7 +14469,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14420,11 +14502,17 @@
         <v>-809.1483111100006</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>296300</v>
+      </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14453,11 +14541,17 @@
         <v>-807.4855111100006</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>296300</v>
+      </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14486,11 +14580,17 @@
         <v>-807.5024111100006</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>296400</v>
+      </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14519,11 +14619,17 @@
         <v>-807.6132111100006</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>296300</v>
+      </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14552,11 +14658,17 @@
         <v>-821.9122111100006</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>296200</v>
+      </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14585,11 +14697,17 @@
         <v>-834.3617111100007</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>295900</v>
+      </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14618,11 +14736,17 @@
         <v>-842.6409111100006</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>295200</v>
+      </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14651,11 +14775,17 @@
         <v>-831.5106111100006</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>294800</v>
+      </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14684,11 +14814,17 @@
         <v>-846.3072111100006</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>295000</v>
+      </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14717,11 +14853,17 @@
         <v>-832.4740111100006</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>294800</v>
+      </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14758,7 +14900,7 @@
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L427" t="n">
@@ -14789,9 +14931,11 @@
         <v>-818.1375111100006</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>294800</v>
+      </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
@@ -14826,9 +14970,11 @@
         <v>-818.3375111100006</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>295100</v>
+      </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -14941,9 +15087,11 @@
         <v>-810.2873111100006</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>295400</v>
+      </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -14978,9 +15126,11 @@
         <v>-797.4497111100006</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>295600</v>
+      </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -15015,9 +15165,11 @@
         <v>-817.3827111100006</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>295900</v>
+      </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
@@ -15052,9 +15204,11 @@
         <v>-817.3827111100006</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>295400</v>
+      </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
@@ -15089,9 +15243,11 @@
         <v>-816.4589111100006</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>295400</v>
+      </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
@@ -15126,9 +15282,11 @@
         <v>-785.4715111100006</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>295600</v>
+      </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
@@ -15163,9 +15321,11 @@
         <v>-784.4466111100006</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>295900</v>
+      </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
@@ -15200,9 +15360,11 @@
         <v>-788.9425111100006</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>296300</v>
+      </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -15237,9 +15399,11 @@
         <v>-788.9425111100006</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>296000</v>
+      </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
@@ -15274,9 +15438,11 @@
         <v>-788.9870111100006</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>296000</v>
+      </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
@@ -15311,9 +15477,11 @@
         <v>-795.3463111100006</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>295900</v>
+      </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
@@ -15348,9 +15516,11 @@
         <v>-815.5549111100006</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>295400</v>
+      </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -15385,9 +15555,11 @@
         <v>-814.0027111100006</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>295300</v>
+      </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -15422,9 +15594,11 @@
         <v>-813.7462111100007</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>295700</v>
+      </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -15459,9 +15633,11 @@
         <v>-785.4432111100007</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>296700</v>
+      </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15496,9 +15672,11 @@
         <v>-785.5432111100007</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>297000</v>
+      </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15533,9 +15711,11 @@
         <v>-764.3432111100007</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>296400</v>
+      </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
@@ -15570,9 +15750,11 @@
         <v>-761.3432111100007</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>296600</v>
+      </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -15607,9 +15789,11 @@
         <v>-754.6346111100006</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>296700</v>
+      </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -15644,9 +15828,11 @@
         <v>-747.1806111100007</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>297200</v>
+      </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15681,9 +15867,11 @@
         <v>-756.3316111100006</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>297800</v>
+      </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -15718,9 +15906,11 @@
         <v>-736.8552111100006</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>297700</v>
+      </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
@@ -15755,9 +15945,11 @@
         <v>-736.8552111100006</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>298300</v>
+      </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
@@ -15792,9 +15984,11 @@
         <v>-736.8552111100006</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>298300</v>
+      </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
@@ -15829,9 +16023,11 @@
         <v>-736.8552111100006</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>298300</v>
+      </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -15866,9 +16062,11 @@
         <v>-737.2552111100006</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>298300</v>
+      </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -15903,9 +16101,11 @@
         <v>-739.2552111100006</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>297700</v>
+      </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -15940,9 +16140,11 @@
         <v>-739.2444111100006</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>297500</v>
+      </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -15977,9 +16179,11 @@
         <v>-739.2444111100006</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>298200</v>
+      </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -16014,9 +16218,11 @@
         <v>-739.2444111100006</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>298200</v>
+      </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -16051,9 +16257,11 @@
         <v>-739.2444111100006</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>298200</v>
+      </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -16088,9 +16296,11 @@
         <v>-791.3417111100006</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>298200</v>
+      </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
@@ -16125,9 +16335,11 @@
         <v>-791.9088111100006</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>297500</v>
+      </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
@@ -16162,9 +16374,11 @@
         <v>-791.9088111100006</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>297300</v>
+      </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -16199,9 +16413,11 @@
         <v>-791.9088111100006</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>297300</v>
+      </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -16236,9 +16452,11 @@
         <v>-797.8516111100006</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>297300</v>
+      </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -16273,9 +16491,11 @@
         <v>-797.9696111100006</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>297100</v>
+      </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -16310,9 +16530,11 @@
         <v>-797.9696111100006</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>297000</v>
+      </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -16347,9 +16569,11 @@
         <v>-798.9696111100006</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>297000</v>
+      </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -16384,9 +16608,11 @@
         <v>-796.4887111100006</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>296500</v>
+      </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -16421,9 +16647,11 @@
         <v>-786.7303111100006</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>296600</v>
+      </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -16458,9 +16686,11 @@
         <v>-782.2887111100006</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>297200</v>
+      </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -16495,9 +16725,11 @@
         <v>-753.3653111100006</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>297700</v>
+      </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -16532,16 +16764,20 @@
         <v>-751.3653111100006</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>298000</v>
+      </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="n">
+        <v>1</v>
+      </c>
       <c r="M475" t="inlineStr"/>
     </row>
     <row r="476">
@@ -16567,11 +16803,17 @@
         <v>-755.6462111100005</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>298100</v>
+      </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16600,11 +16842,17 @@
         <v>-760.2102111100005</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>298000</v>
+      </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16633,11 +16881,17 @@
         <v>-771.4702111100005</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>297800</v>
+      </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16666,11 +16920,17 @@
         <v>-772.5702111100005</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>297300</v>
+      </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16699,11 +16959,17 @@
         <v>-772.0702111100005</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>296800</v>
+      </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16732,11 +16998,17 @@
         <v>-775.1533111100005</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>297200</v>
+      </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16765,11 +17037,17 @@
         <v>-766.3345111100004</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>297100</v>
+      </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16798,11 +17076,17 @@
         <v>-769.0115111100005</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>297300</v>
+      </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16831,11 +17115,17 @@
         <v>-775.9401111100004</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>296800</v>
+      </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16864,11 +17154,17 @@
         <v>-777.9429111100004</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>296300</v>
+      </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16897,11 +17193,17 @@
         <v>-774.4629111100004</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>296000</v>
+      </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16930,11 +17232,17 @@
         <v>-774.4629111100004</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>296400</v>
+      </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16963,11 +17271,17 @@
         <v>-774.8793111100003</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>296400</v>
+      </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16996,11 +17310,17 @@
         <v>-791.8793111100003</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>296300</v>
+      </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17029,11 +17349,17 @@
         <v>-773.5733111100003</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>296000</v>
+      </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17062,11 +17388,17 @@
         <v>-774.3087111100003</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>296600</v>
+      </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17095,11 +17427,17 @@
         <v>-774.3087111100003</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>296400</v>
+      </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17128,11 +17466,17 @@
         <v>-774.2087111100003</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>296400</v>
+      </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17161,11 +17505,17 @@
         <v>-712.8061272800003</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>296900</v>
+      </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17198,7 +17548,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17231,7 +17585,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17264,7 +17622,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17297,7 +17659,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17330,7 +17696,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17363,7 +17733,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17396,7 +17770,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17429,7 +17807,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17462,7 +17844,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17495,7 +17881,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17528,7 +17918,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17561,7 +17955,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17594,7 +17992,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17627,7 +18029,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17660,7 +18066,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17693,7 +18103,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17726,7 +18140,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17759,7 +18177,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17792,7 +18214,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17825,7 +18251,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17858,7 +18288,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17891,7 +18325,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17924,7 +18362,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17957,7 +18399,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17986,11 +18432,15 @@
         <v>-691.0250346400003</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18023,7 +18473,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18056,7 +18510,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18089,7 +18547,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18122,7 +18584,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18155,7 +18621,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18188,7 +18658,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18221,7 +18695,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18254,7 +18732,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18287,7 +18769,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18320,7 +18806,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18349,11 +18839,15 @@
         <v>-685.4478567200003</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18386,7 +18880,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18415,11 +18913,15 @@
         <v>-688.7915567200004</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18448,11 +18950,15 @@
         <v>-691.7567567200003</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18485,7 +18991,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18518,7 +19028,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18551,7 +19065,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18584,7 +19102,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18617,7 +19139,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18650,7 +19176,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18683,7 +19213,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18716,7 +19250,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18749,7 +19287,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18782,7 +19324,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18815,7 +19361,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18848,7 +19398,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18881,7 +19435,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18914,7 +19472,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18947,7 +19509,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18980,7 +19546,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19013,7 +19583,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19042,11 +19616,15 @@
         <v>-683.9700101300002</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19075,11 +19653,15 @@
         <v>-673.9700101300002</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19108,11 +19690,15 @@
         <v>-663.9700101300002</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19141,11 +19727,15 @@
         <v>-663.8700101300002</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19178,7 +19768,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19211,7 +19805,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19244,7 +19842,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19277,7 +19879,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19310,7 +19916,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19343,7 +19953,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19376,7 +19990,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19409,7 +20027,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19442,7 +20064,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19475,7 +20101,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19508,7 +20138,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19541,7 +20175,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19574,7 +20212,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19607,7 +20249,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19640,7 +20286,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19673,7 +20323,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19706,7 +20360,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19739,7 +20397,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19772,7 +20434,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19805,7 +20471,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19838,7 +20508,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19871,7 +20545,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19904,7 +20582,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19937,7 +20619,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19970,7 +20656,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20003,7 +20693,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20036,7 +20730,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20069,7 +20767,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20102,7 +20804,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20135,7 +20841,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20168,7 +20878,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20201,7 +20915,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20234,7 +20952,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20267,7 +20989,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20300,7 +21026,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20333,7 +21063,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20366,7 +21100,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20399,7 +21137,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20432,7 +21174,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20465,7 +21211,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20498,7 +21248,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20531,7 +21285,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20564,7 +21322,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20597,7 +21359,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20630,7 +21396,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20663,7 +21433,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20696,7 +21470,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20729,7 +21507,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20762,7 +21544,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20795,7 +21581,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20828,7 +21618,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20861,7 +21655,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20894,7 +21692,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20927,7 +21729,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20960,7 +21766,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20993,7 +21803,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21026,7 +21840,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21059,7 +21877,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21092,7 +21914,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21125,7 +21951,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21158,7 +21988,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21191,7 +22025,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21224,7 +22062,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21257,7 +22099,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21290,7 +22136,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21323,7 +22173,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21356,7 +22210,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21389,7 +22247,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21422,7 +22284,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21455,7 +22321,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21488,7 +22358,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21521,7 +22395,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21554,7 +22432,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21587,7 +22469,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21620,7 +22506,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21653,7 +22543,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21686,7 +22580,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21719,7 +22617,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21752,7 +22654,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21785,7 +22691,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21818,7 +22728,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21851,7 +22765,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21884,7 +22802,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21917,7 +22839,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21950,7 +22876,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21983,7 +22913,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22016,7 +22950,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22049,7 +22987,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22082,7 +23024,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22115,7 +23061,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22148,7 +23098,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22181,7 +23135,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22214,7 +23172,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22247,7 +23209,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22280,7 +23246,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22313,7 +23283,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22346,7 +23320,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22379,7 +23357,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22412,7 +23394,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22445,7 +23431,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22478,7 +23468,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22511,7 +23505,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22544,7 +23542,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22577,7 +23579,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22610,7 +23616,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22639,14 +23649,16 @@
         <v>-311.8785871400006</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
-      <c r="L660" t="n">
-        <v>1</v>
-      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L660" t="inlineStr"/>
       <c r="M660" t="inlineStr"/>
     </row>
     <row r="661">
@@ -22672,7 +23684,7 @@
         <v>-335.7440871400006</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22870,7 +23882,7 @@
         <v>-424.7129979100006</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22903,7 +23915,7 @@
         <v>-400.7885979100006</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22936,7 +23948,7 @@
         <v>-405.7389979100006</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22969,7 +23981,7 @@
         <v>-391.5461979100006</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23002,7 +24014,7 @@
         <v>-412.8363979100006</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -27886,7 +28898,7 @@
         <v>-707.9302446100005</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27919,7 +28931,7 @@
         <v>-645.6141446100005</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27952,7 +28964,7 @@
         <v>-645.6183446100005</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27985,7 +28997,7 @@
         <v>-632.6183446100005</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -28018,7 +29030,7 @@
         <v>-617.9593446100005</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -28051,7 +29063,7 @@
         <v>-614.3792446100005</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -28084,7 +29096,7 @@
         <v>-644.8394446100004</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -28117,7 +29129,7 @@
         <v>-644.8194446100005</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -28150,7 +29162,7 @@
         <v>-689.3090446100005</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28249,7 +29261,7 @@
         <v>-785.8370513000004</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -28282,7 +29294,7 @@
         <v>-792.7945513000004</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
